--- a/Таблица с тест-кейсами(1).xlsx
+++ b/Таблица с тест-кейсами(1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
   <si>
     <t>Провалено</t>
   </si>
@@ -539,6 +539,12 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
 </sst>
 </file>
 
@@ -547,7 +553,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -665,6 +671,14 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -844,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1039,10 +1053,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1050,6 +1066,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,11 +1075,14 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,7 +1302,7 @@
   <dimension ref="A1:AL1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1317,7 +1337,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="3">
         <f>COUNTIF(J$8:J$51,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="3">
@@ -1374,7 +1394,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="6">
         <f>COUNTIF(J$8:J$52,"passed")</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="6">
@@ -1473,7 +1493,9 @@
         <v>4</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="77">
+        <v>44182</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="9">
         <v>44177</v>
@@ -1567,35 +1589,35 @@
       <c r="C6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="70" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="76" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="76" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="13"/>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="76" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="13"/>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="76" t="s">
         <v>17</v>
       </c>
       <c r="Q6" s="13"/>
-      <c r="R6" s="66" t="s">
+      <c r="R6" s="76" t="s">
         <v>17</v>
       </c>
       <c r="S6" s="13"/>
@@ -1620,30 +1642,30 @@
       <c r="AL6" s="5"/>
     </row>
     <row r="7" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="72"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="67"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="67"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="67"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="67"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="67"/>
+      <c r="P7" s="71"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="67"/>
+      <c r="R7" s="71"/>
       <c r="S7" s="15"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -1678,7 +1700,7 @@
       <c r="D8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="67" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -1687,7 +1709,9 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
+      <c r="J8" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="22"/>
@@ -1735,7 +1759,9 @@
       <c r="G9" s="27"/>
       <c r="H9" s="21"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
+      <c r="J9" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="22"/>
@@ -1783,7 +1809,9 @@
       <c r="G10" s="27"/>
       <c r="H10" s="21"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
+      <c r="J10" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="22"/>
@@ -1831,7 +1859,9 @@
       <c r="G11" s="34"/>
       <c r="H11" s="21"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
+      <c r="J11" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="K11" s="35"/>
       <c r="L11" s="36"/>
       <c r="M11" s="35"/>
@@ -1874,7 +1904,7 @@
       <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="67" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="26" t="s">
@@ -1883,7 +1913,9 @@
       <c r="G12" s="41"/>
       <c r="H12" s="21"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="36"/>
+      <c r="J12" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="K12" s="22"/>
       <c r="L12" s="36"/>
       <c r="M12" s="22"/>
@@ -1924,7 +1956,7 @@
       <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="66" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="26" t="s">
@@ -1933,7 +1965,9 @@
       <c r="G13" s="27"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="J13" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="22"/>
@@ -1981,7 +2015,9 @@
       <c r="G14" s="27"/>
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="22"/>
@@ -2029,7 +2065,9 @@
       <c r="G15" s="27"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
+      <c r="J15" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="22"/>
@@ -2077,7 +2115,9 @@
       <c r="G16" s="27"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
+      <c r="J16" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="22"/>
@@ -2125,7 +2165,9 @@
       <c r="G17" s="16"/>
       <c r="H17" s="21"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
+      <c r="J17" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="22"/>
@@ -2175,7 +2217,9 @@
       <c r="G18" s="27"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="22"/>
@@ -2223,7 +2267,9 @@
       <c r="G19" s="27"/>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
+      <c r="J19" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="22"/>
@@ -2271,7 +2317,9 @@
       <c r="G20" s="27"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="22"/>
@@ -2319,7 +2367,9 @@
       <c r="G21" s="27"/>
       <c r="H21" s="21"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
+      <c r="J21" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="22"/>
@@ -2369,7 +2419,9 @@
       <c r="G22" s="27"/>
       <c r="H22" s="21"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
+      <c r="J22" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="22"/>
@@ -2417,7 +2469,9 @@
       <c r="G23" s="27"/>
       <c r="H23" s="21"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
+      <c r="J23" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="22"/>
@@ -2465,7 +2519,9 @@
       <c r="G24" s="27"/>
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
+      <c r="J24" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="22"/>
@@ -2515,7 +2571,9 @@
       <c r="G25" s="27"/>
       <c r="H25" s="21"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
+      <c r="J25" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="22"/>
@@ -2563,7 +2621,9 @@
       <c r="G26" s="27"/>
       <c r="H26" s="21"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
+      <c r="J26" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="22"/>
@@ -2613,7 +2673,9 @@
       <c r="G27" s="27"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
+      <c r="J27" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="22"/>
@@ -2661,7 +2723,9 @@
       <c r="G28" s="27"/>
       <c r="H28" s="21"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
+      <c r="J28" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="22"/>
@@ -2709,7 +2773,9 @@
       <c r="G29" s="27"/>
       <c r="H29" s="21"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
+      <c r="J29" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="22"/>
@@ -2757,7 +2823,9 @@
       <c r="G30" s="27"/>
       <c r="H30" s="21"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
+      <c r="J30" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="22"/>
@@ -2805,7 +2873,9 @@
       <c r="G31" s="27"/>
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
+      <c r="J31" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="22"/>
@@ -2855,7 +2925,9 @@
       <c r="G32" s="27"/>
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
+      <c r="J32" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="22"/>
@@ -2905,7 +2977,9 @@
       <c r="G33" s="27"/>
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
+      <c r="J33" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="22"/>
@@ -2953,7 +3027,9 @@
       <c r="G34" s="27"/>
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
+      <c r="J34" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="22"/>
@@ -3001,7 +3077,9 @@
       <c r="G35" s="27"/>
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
+      <c r="J35" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="22"/>
@@ -3049,7 +3127,9 @@
       <c r="G36" s="27"/>
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
+      <c r="J36" s="78" t="s">
+        <v>115</v>
+      </c>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="22"/>
@@ -12832,6 +12912,11 @@
   </sheetData>
   <autoFilter ref="H7:H58"/>
   <mergeCells count="12">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="A1:G5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -12839,11 +12924,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J59 L8:L59 N8:N59 P8:P59 R8:R59">
@@ -12851,6 +12931,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Таблица с тест-кейсами(1).xlsx
+++ b/Таблица с тест-кейсами(1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
   <si>
     <t>Провалено</t>
   </si>
@@ -1059,6 +1059,16 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1066,7 +1076,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,15 +1084,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:AL1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1324,13 +1324,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,13 +1381,13 @@
       <c r="AL1" s="5"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="6">
         <f>COUNTIF(L$8:L$52,"passed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="6">
@@ -1438,13 +1438,13 @@
       <c r="AL2" s="5"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1482,18 +1482,18 @@
       <c r="AL3" s="5"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="77">
+      <c r="J4" s="68">
         <v>44182</v>
       </c>
       <c r="K4" s="2"/>
@@ -1528,13 +1528,13 @@
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1580,44 +1580,44 @@
       <c r="AL5" s="5"/>
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="70" t="s">
+      <c r="F6" s="78"/>
+      <c r="G6" s="74" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="70" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="76" t="s">
+      <c r="L6" s="70" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="13"/>
-      <c r="N6" s="76" t="s">
+      <c r="N6" s="70" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="13"/>
-      <c r="P6" s="76" t="s">
+      <c r="P6" s="70" t="s">
         <v>17</v>
       </c>
       <c r="Q6" s="13"/>
-      <c r="R6" s="76" t="s">
+      <c r="R6" s="70" t="s">
         <v>17</v>
       </c>
       <c r="S6" s="13"/>
@@ -1645,7 +1645,7 @@
       <c r="A7" s="71"/>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
-      <c r="D7" s="73"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="14" t="s">
         <v>18</v>
       </c>
@@ -3127,11 +3127,13 @@
       <c r="G36" s="27"/>
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="78" t="s">
+      <c r="J36" s="69" t="s">
         <v>115</v>
       </c>
       <c r="K36" s="22"/>
-      <c r="L36" s="23"/>
+      <c r="L36" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="M36" s="22"/>
       <c r="N36" s="23"/>
       <c r="O36" s="22"/>
@@ -12912,11 +12914,6 @@
   </sheetData>
   <autoFilter ref="H7:H58"/>
   <mergeCells count="12">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="R6:R7"/>
     <mergeCell ref="A1:G5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -12924,6 +12921,11 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J59 L8:L59 N8:N59 P8:P59 R8:R59">
